--- a/data/trans_camb/P16A15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 7,23</t>
+          <t>-0,32; 7,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,56</t>
+          <t>-0,49; 6,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,34</t>
+          <t>2,93; 9,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 4,75</t>
+          <t>-2,49; 4,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 3,29</t>
+          <t>-3,99; 3,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 9,31</t>
+          <t>2,45; 9,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 5,06</t>
+          <t>-0,33; 5,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,71</t>
+          <t>-1,13; 3,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,12</t>
+          <t>3,57; 8,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 165,19</t>
+          <t>-7,79; 165,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 154,22</t>
+          <t>-7,99; 154,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>40,53; 228,2</t>
+          <t>35,02; 215,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 156,51</t>
+          <t>-44,73; 159,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,12; 111,89</t>
+          <t>-60,99; 112,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,08; 363,39</t>
+          <t>33,63; 343,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 119,54</t>
+          <t>-5,35; 131,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 97,24</t>
+          <t>-19,42; 92,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>54,37; 200,61</t>
+          <t>55,5; 202,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 7,91</t>
+          <t>0,14; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 6,33</t>
+          <t>-0,66; 6,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 11,92</t>
+          <t>4,62; 12,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 7,29</t>
+          <t>0,55; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 6,7</t>
+          <t>0,04; 6,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,28</t>
+          <t>3,44; 8,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 6,29</t>
+          <t>1,3; 6,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,26</t>
+          <t>0,41; 5,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,14</t>
+          <t>5,13; 9,81</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 215,37</t>
+          <t>-0,9; 221,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 177,94</t>
+          <t>-11,66; 181,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,71; 323,91</t>
+          <t>58,25; 366,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 397,08</t>
+          <t>2,77; 374,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 354,97</t>
+          <t>-5,56; 328,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,95; 503,73</t>
+          <t>70,31; 484,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,69; 197,87</t>
+          <t>19,34; 195,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 158,95</t>
+          <t>6,33; 164,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>101,3; 328,42</t>
+          <t>93,72; 308,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,73; 9,33</t>
+          <t>2,89; 9,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 9,35</t>
+          <t>2,44; 9,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 10,54</t>
+          <t>-3,04; 10,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,18</t>
+          <t>-3,16; 6,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 12,85</t>
+          <t>-0,57; 13,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 15,41</t>
+          <t>4,05; 14,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,07; 7,84</t>
+          <t>2,07; 7,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 8,88</t>
+          <t>3,11; 9,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 10,52</t>
+          <t>-2,79; 10,58</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37,56; 221,58</t>
+          <t>37,79; 230,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,67; 233,61</t>
+          <t>30,36; 218,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 204,64</t>
+          <t>-34,23; 209,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,58; 154,27</t>
+          <t>-37,85; 173,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 316,97</t>
+          <t>-11,37; 344,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,02; 408,77</t>
+          <t>33,94; 387,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,0; 162,07</t>
+          <t>26,4; 172,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,57; 189,24</t>
+          <t>41,71; 200,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 195,01</t>
+          <t>-35,97; 197,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,96; 7,08</t>
+          <t>2,15; 7,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,2</t>
+          <t>0,5; 5,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,64</t>
+          <t>3,92; 8,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,94</t>
+          <t>-0,46; 4,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,37</t>
+          <t>-1,73; 3,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 58,31</t>
+          <t>4,32; 56,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 5,46</t>
+          <t>1,82; 5,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,46</t>
+          <t>0,23; 3,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,2; 36,18</t>
+          <t>5,26; 39,9</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,3; 107,82</t>
+          <t>24,48; 108,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,31; 81,76</t>
+          <t>2,72; 77,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>45,71; 133,99</t>
+          <t>43,75; 133,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 106,53</t>
+          <t>-6,98; 105,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 71,52</t>
+          <t>-25,21; 73,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>64,08; 1251,19</t>
+          <t>69,17; 1869,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,54; 88,59</t>
+          <t>23,7; 87,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,88; 56,93</t>
+          <t>3,32; 56,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>71,89; 585,55</t>
+          <t>72,3; 611,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,57; 10,31</t>
+          <t>3,33; 10,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,43; 9,58</t>
+          <t>3,21; 9,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 10,81</t>
+          <t>4,01; 10,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,93</t>
+          <t>3,79; 10,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,08; 9,34</t>
+          <t>2,08; 9,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,57; 13,53</t>
+          <t>4,13; 12,75</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 9,47</t>
+          <t>4,69; 9,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,0</t>
+          <t>3,47; 8,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,58; 11,24</t>
+          <t>5,53; 11,43</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>56,79; 322,8</t>
+          <t>45,83; 325,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>50,32; 309,85</t>
+          <t>48,02; 306,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>65,24; 345,67</t>
+          <t>59,39; 335,07</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>41,59; 191,09</t>
+          <t>40,49; 177,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,03; 148,11</t>
+          <t>19,32; 147,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>52,32; 210,96</t>
+          <t>46,06; 196,38</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>57,72; 171,78</t>
+          <t>57,18; 182,04</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>33,83; 139,15</t>
+          <t>41,81; 155,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>75,98; 205,37</t>
+          <t>71,89; 216,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,62</t>
+          <t>-1,47; 2,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,57</t>
+          <t>-1,63; 1,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,33</t>
+          <t>-1,15; 2,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,53</t>
+          <t>3,37; 9,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,59</t>
+          <t>1,61; 7,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,13</t>
+          <t>2,63; 8,16</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,53</t>
+          <t>2,56; 7,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,85</t>
+          <t>0,78; 6,0</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,13</t>
+          <t>1,51; 5,95</t>
         </is>
       </c>
     </row>
@@ -1881,37 +1881,37 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-77,53; 950,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>25,69; 90,96</t>
+          <t>26,81; 90,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>12,97; 72,34</t>
+          <t>12,14; 70,16</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,51; 78,08</t>
+          <t>18,97; 78,54</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,72; 88,98</t>
+          <t>23,09; 86,11</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>8,75; 69,34</t>
+          <t>6,28; 69,9</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>14,61; 73,8</t>
+          <t>14,1; 71,26</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,17; 5,79</t>
+          <t>2,96; 5,84</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,83</t>
+          <t>2,4; 4,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,45</t>
+          <t>3,16; 7,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,0; 6,0</t>
+          <t>2,92; 5,96</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,57</t>
+          <t>1,61; 4,54</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,5; 25,87</t>
+          <t>5,57; 26,14</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,38</t>
+          <t>3,4; 5,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,34</t>
+          <t>2,39; 4,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,51; 17,38</t>
+          <t>5,46; 16,05</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>50,36; 112,2</t>
+          <t>46,62; 110,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>37,09; 94,93</t>
+          <t>36,6; 92,66</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>54,33; 140,42</t>
+          <t>55,82; 137,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>34,59; 83,65</t>
+          <t>33,69; 81,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,45; 63,26</t>
+          <t>19,3; 62,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>67,8; 330,67</t>
+          <t>69,3; 352,7</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>47,35; 83,64</t>
+          <t>46,16; 84,13</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>31,57; 67,46</t>
+          <t>31,92; 68,45</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>79,8; 271,91</t>
+          <t>77,68; 242,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A15-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
